--- a/Methods/dataBase.xlsx
+++ b/Methods/dataBase.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Average" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="188">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -227,6 +228,363 @@
   </si>
   <si>
     <t xml:space="preserve">-34.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-57.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-57.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-74.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-64.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-57.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-57.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-63.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-63.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-57.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-61.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.2</t>
   </si>
 </sst>
 </file>
@@ -329,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A252" activeCellId="0" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7140,4 +7498,739 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Methods/dataBase.xlsx
+++ b/Methods/dataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="194">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t xml:space="preserve">-34.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-71.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-73.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-70.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.00</t>
   </si>
   <si>
     <t xml:space="preserve">-48.8</t>
@@ -685,10 +703,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A252" activeCellId="0" sqref="A252"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B371" activeCellId="0" sqref="A363:B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7487,6 +7505,2866 @@
       </c>
       <c r="H261" s="0" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H262" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H263" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H264" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H265" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G266" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H266" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H267" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H268" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G269" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H269" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G270" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H270" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G271" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H271" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H272" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G274" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H274" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G275" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H275" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G276" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H276" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H277" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G278" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H278" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G279" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H279" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H280" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G281" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H281" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H282" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G283" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H283" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H285" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G286" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H286" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G287" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H287" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G288" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H288" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H289" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G290" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H290" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H291" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G292" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H292" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G293" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H293" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G294" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H294" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G295" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H295" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H296" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H297" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H298" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G299" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H299" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G300" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H300" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G301" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H301" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G302" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H302" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G303" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H303" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H304" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G305" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H305" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H306" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G307" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H307" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G308" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H308" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G309" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H309" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G310" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H310" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G311" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H311" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F312" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H312" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G313" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H313" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G314" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H314" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G315" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H315" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F316" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G316" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H316" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G317" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H317" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G318" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H318" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G319" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H319" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G320" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H320" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G321" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H321" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G322" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G323" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H323" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G324" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H324" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G325" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H325" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G326" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H326" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G327" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H327" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F328" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G328" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H328" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F329" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G329" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H329" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G330" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H330" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G331" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H331" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F332" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G332" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H332" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G333" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H333" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G334" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H334" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G335" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H335" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G336" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H336" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H337" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H338" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G339" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H339" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H340" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G341" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H341" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G342" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H342" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G343" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H343" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G344" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H344" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G345" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H345" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G346" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H346" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G347" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H347" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G348" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H348" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G349" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H349" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F350" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G350" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H350" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G351" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H351" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G352" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H352" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F353" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G353" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H353" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G354" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H354" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G355" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H355" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G356" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H356" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F357" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G357" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H357" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F358" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G358" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H358" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F359" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G359" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H359" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F360" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G360" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H360" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F361" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G361" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H361" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F362" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G362" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H362" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F363" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G363" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H363" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F364" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G364" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H364" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G365" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H365" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F366" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G366" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H366" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G367" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H367" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F368" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G368" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H368" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F369" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G369" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H369" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F370" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G370" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H370" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G371" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H371" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7507,8 +10385,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="1" sqref="A363:B371 I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7518,7 +10396,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -7556,22 +10434,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,22 +10460,22 @@
         <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,22 +10486,22 @@
         <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,22 +10512,22 @@
         <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7660,22 +10538,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,22 +10564,22 @@
         <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,22 +10590,22 @@
         <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7738,22 +10616,22 @@
         <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,22 +10642,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,22 +10668,22 @@
         <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,22 +10694,22 @@
         <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,22 +10720,22 @@
         <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,22 +10746,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,22 +10772,22 @@
         <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7920,22 +10798,22 @@
         <v>63</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,22 +10824,22 @@
         <v>24</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,22 +10850,22 @@
         <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7998,22 +10876,22 @@
         <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,22 +10902,22 @@
         <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,22 +10928,22 @@
         <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,22 +10954,22 @@
         <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8102,22 +10980,22 @@
         <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,22 +11006,22 @@
         <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,22 +11032,22 @@
         <v>66</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,22 +11058,22 @@
         <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,22 +11084,22 @@
         <v>67</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Methods/dataBase.xlsx
+++ b/Methods/dataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="250">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -603,6 +603,174 @@
   </si>
   <si>
     <t xml:space="preserve">-53.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-64.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-61.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-61.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-61.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-72.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-64.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-69.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-65.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-63.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-61.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-65.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-65.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.2</t>
   </si>
 </sst>
 </file>
@@ -703,10 +871,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:H431"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B371" activeCellId="0" sqref="A363:B371"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A412" activeCellId="0" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10367,6 +10535,1566 @@
         <v>19</v>
       </c>
     </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F372" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G372" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H372" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E373" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G373" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H373" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F374" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G374" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H374" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F375" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G375" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H375" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G376" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H376" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E377" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F377" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H377" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G378" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H378" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E379" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F379" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G379" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H379" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E380" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F380" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G380" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H380" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E381" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G381" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H381" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E382" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F382" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G382" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H382" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E383" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G383" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H383" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E384" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G384" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H384" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E385" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F385" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G385" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H385" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F386" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G386" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H386" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F387" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G387" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H387" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E388" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F388" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G388" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H388" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F389" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G389" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H389" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G390" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H390" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E391" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F391" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G391" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H391" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F392" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G392" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H392" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F393" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G393" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H393" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F394" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G394" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H394" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G395" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H395" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F396" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H396" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G397" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H397" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F398" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G398" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H398" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E399" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F399" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G399" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H399" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E400" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F400" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G400" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H400" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F401" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G401" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H401" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E402" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F402" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G402" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H402" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E403" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F403" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H403" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F404" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H404" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E405" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F405" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G405" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H405" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F406" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G406" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H406" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F407" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G407" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H407" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F408" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G408" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H408" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E409" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F409" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G409" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H409" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E410" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F410" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G410" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H410" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E411" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F411" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G411" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H411" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E412" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F412" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G412" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H412" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F413" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G413" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H413" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G414" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H414" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F415" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G415" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H415" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F416" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H416" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F417" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G417" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H417" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F418" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G418" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H418" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F419" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G419" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H419" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F420" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G420" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H420" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G421" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H421" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F422" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G422" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H422" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G423" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H423" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F424" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G424" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H424" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F425" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G425" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H425" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F426" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G426" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H426" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E427" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F427" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G427" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F428" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G428" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H428" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F429" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G429" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H429" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F430" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G430" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H430" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F431" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G431" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H431" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -10383,10 +12111,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="1" sqref="A363:B371 I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11102,6 +12830,448 @@
         <v>180</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
